--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/sample2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/sample2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\sample2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E63B1D-58F6-4130-AA25-514B42B6E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18C1F5-B96C-4330-8F39-CC949392B600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2F55D996-4A75-43CD-A60A-BFFB3C293A3A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E4F0BFD5-ECBC-4FC8-8654-0CF71CCA88A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D471FC4-5C56-4D25-BA85-14EBFAB6607C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB60A53-C9E9-4223-A885-03369F8D348E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
